--- a/lib/tasks/passengers_2018-2019.xlsx
+++ b/lib/tasks/passengers_2018-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sharetest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1234">
   <si>
     <t>Allison Claire Wiradharma</t>
   </si>
@@ -4043,10 +4043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I980"/>
+  <dimension ref="A1:I982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="E890" sqref="E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24726,22 +24726,22 @@
     </row>
     <row r="900" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B900">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C900">
-        <v>739</v>
+        <v>306</v>
       </c>
       <c r="D900" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="E900" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="G900">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H900" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I900" t="b">
         <v>1</v>
@@ -24749,22 +24749,22 @@
     </row>
     <row r="901" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B901">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C901">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="D901" t="s">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="E901" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G901">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H901" t="s">
-        <v>35</v>
+        <v>1189</v>
       </c>
       <c r="I901" t="b">
         <v>1</v>
@@ -24775,19 +24775,19 @@
         <v>465</v>
       </c>
       <c r="C902">
-        <v>476</v>
+        <v>739</v>
       </c>
       <c r="D902" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E902" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="G902">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H902" t="s">
-        <v>1179</v>
+        <v>73</v>
       </c>
       <c r="I902" t="b">
         <v>1</v>
@@ -24798,19 +24798,19 @@
         <v>465</v>
       </c>
       <c r="C903">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="D903" t="s">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="E903" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="G903">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H903" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I903" t="b">
         <v>1</v>
@@ -24821,19 +24821,19 @@
         <v>465</v>
       </c>
       <c r="C904">
+        <v>476</v>
+      </c>
+      <c r="D904" t="s">
+        <v>94</v>
+      </c>
+      <c r="E904" t="s">
+        <v>95</v>
+      </c>
+      <c r="G904">
         <v>12</v>
       </c>
-      <c r="D904" t="s">
-        <v>325</v>
-      </c>
-      <c r="E904" t="s">
-        <v>1</v>
-      </c>
-      <c r="G904">
-        <v>19</v>
-      </c>
       <c r="H904" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="I904" t="b">
         <v>1</v>
@@ -24844,19 +24844,19 @@
         <v>465</v>
       </c>
       <c r="C905">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="D905" t="s">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="E905" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G905">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H905" t="s">
-        <v>1179</v>
+        <v>74</v>
       </c>
       <c r="I905" t="b">
         <v>1</v>
@@ -24867,19 +24867,19 @@
         <v>465</v>
       </c>
       <c r="C906">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D906" t="s">
-        <v>393</v>
+        <v>325</v>
       </c>
       <c r="E906" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="G906">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H906" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="I906" t="b">
         <v>1</v>
@@ -24890,19 +24890,19 @@
         <v>465</v>
       </c>
       <c r="C907">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="D907" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="E907" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="G907">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H907" t="s">
-        <v>36</v>
+        <v>1179</v>
       </c>
       <c r="I907" t="b">
         <v>1</v>
@@ -24910,22 +24910,22 @@
     </row>
     <row r="908" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B908">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C908">
-        <v>734</v>
+        <v>201</v>
       </c>
       <c r="D908" t="s">
-        <v>298</v>
+        <v>393</v>
       </c>
       <c r="E908" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G908">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H908" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="I908" t="b">
         <v>1</v>
@@ -24933,22 +24933,22 @@
     </row>
     <row r="909" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B909">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C909">
-        <v>303</v>
+        <v>499</v>
       </c>
       <c r="D909" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="E909" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="G909">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H909" t="s">
-        <v>1179</v>
+        <v>36</v>
       </c>
       <c r="I909" t="b">
         <v>1</v>
@@ -24959,19 +24959,19 @@
         <v>466</v>
       </c>
       <c r="C910">
-        <v>267</v>
+        <v>734</v>
       </c>
       <c r="D910" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="E910" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="G910">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H910" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="I910" t="b">
         <v>1</v>
@@ -24982,19 +24982,19 @@
         <v>466</v>
       </c>
       <c r="C911">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="D911" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E911" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="G911">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H911" t="s">
-        <v>73</v>
+        <v>1179</v>
       </c>
       <c r="I911" t="b">
         <v>1</v>
@@ -25005,19 +25005,19 @@
         <v>466</v>
       </c>
       <c r="C912">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D912" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="E912" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="G912">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H912" t="s">
-        <v>36</v>
+        <v>1183</v>
       </c>
       <c r="I912" t="b">
         <v>1</v>
@@ -25028,19 +25028,19 @@
         <v>466</v>
       </c>
       <c r="C913">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D913" t="s">
-        <v>548</v>
+        <v>177</v>
       </c>
       <c r="E913" t="s">
         <v>178</v>
       </c>
       <c r="G913">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H913" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I913" t="b">
         <v>1</v>
@@ -25048,22 +25048,22 @@
     </row>
     <row r="914" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B914">
-        <v>601</v>
+        <v>466</v>
       </c>
       <c r="C914">
-        <v>1101</v>
+        <v>245</v>
       </c>
       <c r="D914" t="s">
-        <v>1009</v>
+        <v>147</v>
       </c>
       <c r="E914" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="G914">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H914" t="s">
-        <v>1216</v>
+        <v>36</v>
       </c>
       <c r="I914" t="b">
         <v>1</v>
@@ -25071,22 +25071,22 @@
     </row>
     <row r="915" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B915">
-        <v>601</v>
+        <v>466</v>
       </c>
       <c r="C915">
-        <v>1068</v>
+        <v>158</v>
       </c>
       <c r="D915" t="s">
-        <v>946</v>
+        <v>548</v>
       </c>
       <c r="E915" t="s">
-        <v>515</v>
+        <v>178</v>
       </c>
       <c r="G915">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H915" t="s">
-        <v>1212</v>
+        <v>77</v>
       </c>
       <c r="I915" t="b">
         <v>1</v>
@@ -25097,19 +25097,19 @@
         <v>601</v>
       </c>
       <c r="C916">
-        <v>1071</v>
+        <v>1101</v>
       </c>
       <c r="D916" t="s">
-        <v>949</v>
+        <v>1009</v>
       </c>
       <c r="E916" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="G916">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H916" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="I916" t="b">
         <v>1</v>
@@ -25120,19 +25120,19 @@
         <v>601</v>
       </c>
       <c r="C917">
-        <v>986</v>
+        <v>1068</v>
       </c>
       <c r="D917" t="s">
-        <v>1058</v>
+        <v>946</v>
       </c>
       <c r="E917" t="s">
-        <v>1059</v>
+        <v>515</v>
       </c>
       <c r="G917">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H917" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="I917" t="b">
         <v>1</v>
@@ -25143,19 +25143,19 @@
         <v>601</v>
       </c>
       <c r="C918">
-        <v>991</v>
+        <v>1071</v>
       </c>
       <c r="D918" t="s">
-        <v>1062</v>
+        <v>949</v>
       </c>
       <c r="E918" t="s">
-        <v>425</v>
+        <v>164</v>
       </c>
       <c r="G918">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H918" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="I918" t="b">
         <v>1</v>
@@ -25163,22 +25163,22 @@
     </row>
     <row r="919" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B919">
-        <v>467</v>
+        <v>601</v>
       </c>
       <c r="C919">
-        <v>610</v>
+        <v>986</v>
       </c>
       <c r="D919" t="s">
-        <v>872</v>
+        <v>1058</v>
       </c>
       <c r="E919" t="s">
-        <v>783</v>
+        <v>1059</v>
       </c>
       <c r="G919">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H919" t="s">
-        <v>38</v>
+        <v>1219</v>
       </c>
       <c r="I919" t="b">
         <v>1</v>
@@ -25186,22 +25186,22 @@
     </row>
     <row r="920" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B920">
-        <v>467</v>
+        <v>601</v>
       </c>
       <c r="C920">
-        <v>118</v>
+        <v>991</v>
       </c>
       <c r="D920" t="s">
-        <v>600</v>
+        <v>1062</v>
       </c>
       <c r="E920" t="s">
-        <v>601</v>
+        <v>425</v>
       </c>
       <c r="G920">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="H920" t="s">
-        <v>1196</v>
+        <v>1219</v>
       </c>
       <c r="I920" t="b">
         <v>1</v>
@@ -25212,19 +25212,19 @@
         <v>467</v>
       </c>
       <c r="C921">
-        <v>412</v>
+        <v>610</v>
       </c>
       <c r="D921" t="s">
-        <v>262</v>
+        <v>872</v>
       </c>
       <c r="E921" t="s">
-        <v>263</v>
+        <v>783</v>
       </c>
       <c r="G921">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="H921" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I921" t="b">
         <v>1</v>
@@ -25235,19 +25235,19 @@
         <v>467</v>
       </c>
       <c r="C922">
-        <v>410</v>
+        <v>118</v>
       </c>
       <c r="D922" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="E922" t="s">
-        <v>263</v>
+        <v>601</v>
       </c>
       <c r="G922">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H922" t="s">
-        <v>78</v>
+        <v>1196</v>
       </c>
       <c r="I922" t="b">
         <v>1</v>
@@ -25258,19 +25258,19 @@
         <v>467</v>
       </c>
       <c r="C923">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="D923" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="E923" t="s">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="G923">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H923" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I923" t="b">
         <v>1</v>
@@ -25281,19 +25281,19 @@
         <v>467</v>
       </c>
       <c r="C924">
-        <v>117</v>
+        <v>410</v>
       </c>
       <c r="D924" t="s">
-        <v>850</v>
+        <v>623</v>
       </c>
       <c r="E924" t="s">
-        <v>601</v>
+        <v>263</v>
       </c>
       <c r="G924">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H924" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I924" t="b">
         <v>1</v>
@@ -25304,19 +25304,19 @@
         <v>467</v>
       </c>
       <c r="C925">
-        <v>411</v>
+        <v>490</v>
       </c>
       <c r="D925" t="s">
-        <v>452</v>
+        <v>51</v>
       </c>
       <c r="E925" t="s">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="G925">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H925" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I925" t="b">
         <v>1</v>
@@ -25327,19 +25327,19 @@
         <v>467</v>
       </c>
       <c r="C926">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D926" t="s">
-        <v>707</v>
+        <v>850</v>
       </c>
       <c r="E926" t="s">
-        <v>708</v>
+        <v>601</v>
       </c>
       <c r="G926">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H926" t="s">
-        <v>1202</v>
+        <v>82</v>
       </c>
       <c r="I926" t="b">
         <v>1</v>
@@ -25350,19 +25350,19 @@
         <v>467</v>
       </c>
       <c r="C927">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="D927" t="s">
-        <v>782</v>
+        <v>452</v>
       </c>
       <c r="E927" t="s">
-        <v>783</v>
+        <v>263</v>
       </c>
       <c r="G927">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H927" t="s">
-        <v>1207</v>
+        <v>76</v>
       </c>
       <c r="I927" t="b">
         <v>1</v>
@@ -25373,19 +25373,19 @@
         <v>467</v>
       </c>
       <c r="C928">
-        <v>545</v>
+        <v>106</v>
       </c>
       <c r="D928" t="s">
-        <v>864</v>
+        <v>707</v>
       </c>
       <c r="E928" t="s">
-        <v>865</v>
+        <v>708</v>
       </c>
       <c r="G928">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H928" t="s">
-        <v>82</v>
+        <v>1202</v>
       </c>
       <c r="I928" t="b">
         <v>1</v>
@@ -25396,13 +25396,13 @@
         <v>467</v>
       </c>
       <c r="C929">
-        <v>63</v>
+        <v>611</v>
       </c>
       <c r="D929" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E929" t="s">
-        <v>639</v>
+        <v>783</v>
       </c>
       <c r="G929">
         <v>37</v>
@@ -25419,19 +25419,19 @@
         <v>467</v>
       </c>
       <c r="C930">
-        <v>1004</v>
+        <v>545</v>
       </c>
       <c r="D930" t="s">
-        <v>341</v>
+        <v>864</v>
       </c>
       <c r="E930" t="s">
-        <v>342</v>
+        <v>865</v>
       </c>
       <c r="G930">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H930" t="s">
-        <v>1185</v>
+        <v>82</v>
       </c>
       <c r="I930" t="b">
         <v>1</v>
@@ -25442,19 +25442,19 @@
         <v>467</v>
       </c>
       <c r="C931">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D931" t="s">
-        <v>638</v>
+        <v>784</v>
       </c>
       <c r="E931" t="s">
         <v>639</v>
       </c>
       <c r="G931">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H931" t="s">
-        <v>78</v>
+        <v>1207</v>
       </c>
       <c r="I931" t="b">
         <v>1</v>
@@ -25462,22 +25462,22 @@
     </row>
     <row r="932" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B932">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C932">
-        <v>425</v>
+        <v>1004</v>
       </c>
       <c r="D932" t="s">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="E932" t="s">
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="G932">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H932" t="s">
-        <v>77</v>
+        <v>1185</v>
       </c>
       <c r="I932" t="b">
         <v>1</v>
@@ -25485,22 +25485,22 @@
     </row>
     <row r="933" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B933">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C933">
-        <v>701</v>
+        <v>64</v>
       </c>
       <c r="D933" t="s">
-        <v>173</v>
+        <v>638</v>
       </c>
       <c r="E933" t="s">
-        <v>174</v>
+        <v>639</v>
       </c>
       <c r="G933">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H933" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I933" t="b">
         <v>1</v>
@@ -25511,19 +25511,19 @@
         <v>468</v>
       </c>
       <c r="C934">
-        <v>879</v>
+        <v>425</v>
       </c>
       <c r="D934" t="s">
-        <v>612</v>
+        <v>529</v>
       </c>
       <c r="E934" t="s">
-        <v>567</v>
+        <v>174</v>
       </c>
       <c r="G934">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H934" t="s">
-        <v>1196</v>
+        <v>77</v>
       </c>
       <c r="I934" t="b">
         <v>1</v>
@@ -25534,19 +25534,19 @@
         <v>468</v>
       </c>
       <c r="C935">
-        <v>878</v>
+        <v>701</v>
       </c>
       <c r="D935" t="s">
-        <v>566</v>
+        <v>173</v>
       </c>
       <c r="E935" t="s">
-        <v>567</v>
+        <v>174</v>
       </c>
       <c r="G935">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H935" t="s">
-        <v>1194</v>
+        <v>73</v>
       </c>
       <c r="I935" t="b">
         <v>1</v>
@@ -25557,19 +25557,19 @@
         <v>468</v>
       </c>
       <c r="C936">
-        <v>175</v>
+        <v>879</v>
       </c>
       <c r="D936" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="E936" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G936">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H936" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="I936" t="b">
         <v>1</v>
@@ -25577,22 +25577,22 @@
     </row>
     <row r="937" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B937">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C937">
-        <v>763</v>
+        <v>878</v>
       </c>
       <c r="D937" t="s">
-        <v>1144</v>
+        <v>566</v>
       </c>
       <c r="E937" t="s">
-        <v>670</v>
+        <v>567</v>
       </c>
       <c r="G937">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H937" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="I937" t="b">
         <v>1</v>
@@ -25600,22 +25600,22 @@
     </row>
     <row r="938" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B938">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C938">
-        <v>644</v>
+        <v>175</v>
       </c>
       <c r="D938" t="s">
-        <v>1145</v>
+        <v>574</v>
       </c>
       <c r="E938" t="s">
-        <v>282</v>
+        <v>575</v>
       </c>
       <c r="G938">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H938" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="I938" t="b">
         <v>1</v>
@@ -25626,19 +25626,19 @@
         <v>469</v>
       </c>
       <c r="C939">
-        <v>405</v>
+        <v>763</v>
       </c>
       <c r="D939" t="s">
-        <v>514</v>
+        <v>1144</v>
       </c>
       <c r="E939" t="s">
-        <v>515</v>
+        <v>670</v>
       </c>
       <c r="G939">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H939" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="I939" t="b">
         <v>1</v>
@@ -25649,19 +25649,19 @@
         <v>469</v>
       </c>
       <c r="C940">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D940" t="s">
-        <v>281</v>
+        <v>1145</v>
       </c>
       <c r="E940" t="s">
         <v>282</v>
       </c>
       <c r="G940">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H940" t="s">
-        <v>74</v>
+        <v>1198</v>
       </c>
       <c r="I940" t="b">
         <v>1</v>
@@ -25672,19 +25672,19 @@
         <v>469</v>
       </c>
       <c r="C941">
-        <v>643</v>
+        <v>405</v>
       </c>
       <c r="D941" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E941" t="s">
-        <v>282</v>
+        <v>515</v>
       </c>
       <c r="G941">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H941" t="s">
-        <v>77</v>
+        <v>1193</v>
       </c>
       <c r="I941" t="b">
         <v>1</v>
@@ -25695,19 +25695,19 @@
         <v>469</v>
       </c>
       <c r="C942">
-        <v>406</v>
+        <v>645</v>
       </c>
       <c r="D942" t="s">
-        <v>1166</v>
+        <v>281</v>
       </c>
       <c r="E942" t="s">
-        <v>515</v>
+        <v>282</v>
       </c>
       <c r="G942">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H942" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I942" t="b">
         <v>1</v>
@@ -25715,22 +25715,22 @@
     </row>
     <row r="943" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B943">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C943">
-        <v>230</v>
+        <v>643</v>
       </c>
       <c r="D943" t="s">
-        <v>126</v>
+        <v>544</v>
       </c>
       <c r="E943" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="G943">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H943" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="I943" t="b">
         <v>1</v>
@@ -25738,22 +25738,22 @@
     </row>
     <row r="944" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B944">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C944">
-        <v>733</v>
+        <v>406</v>
       </c>
       <c r="D944" t="s">
-        <v>128</v>
+        <v>1166</v>
       </c>
       <c r="E944" t="s">
-        <v>129</v>
+        <v>515</v>
       </c>
       <c r="G944">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H944" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="I944" t="b">
         <v>1</v>
@@ -25764,19 +25764,19 @@
         <v>479</v>
       </c>
       <c r="C945">
-        <v>451</v>
+        <v>230</v>
       </c>
       <c r="D945" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E945" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G945">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H945" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I945" t="b">
         <v>1</v>
@@ -25787,13 +25787,13 @@
         <v>479</v>
       </c>
       <c r="C946">
-        <v>259</v>
+        <v>733</v>
       </c>
       <c r="D946" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E946" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G946">
         <v>13</v>
@@ -25807,22 +25807,22 @@
     </row>
     <row r="947" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B947">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C947">
-        <v>953</v>
+        <v>451</v>
       </c>
       <c r="D947" t="s">
-        <v>987</v>
+        <v>169</v>
       </c>
       <c r="E947" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="G947">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H947" t="s">
-        <v>1214</v>
+        <v>73</v>
       </c>
       <c r="I947" t="b">
         <v>1</v>
@@ -25830,22 +25830,22 @@
     </row>
     <row r="948" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B948">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C948">
-        <v>893</v>
+        <v>259</v>
       </c>
       <c r="D948" t="s">
-        <v>1076</v>
+        <v>134</v>
       </c>
       <c r="E948" t="s">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="G948">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H948" t="s">
-        <v>1222</v>
+        <v>36</v>
       </c>
       <c r="I948" t="b">
         <v>1</v>
@@ -25856,19 +25856,19 @@
         <v>470</v>
       </c>
       <c r="C949">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="D949" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="E949" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="G949">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H949" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="I949" t="b">
         <v>1</v>
@@ -25879,19 +25879,19 @@
         <v>470</v>
       </c>
       <c r="C950">
-        <v>1075</v>
+        <v>893</v>
       </c>
       <c r="D950" t="s">
-        <v>956</v>
+        <v>1076</v>
       </c>
       <c r="E950" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G950">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H950" t="s">
-        <v>1212</v>
+        <v>1222</v>
       </c>
       <c r="I950" t="b">
         <v>1</v>
@@ -25899,22 +25899,22 @@
     </row>
     <row r="951" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B951">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C951">
-        <v>302</v>
+        <v>967</v>
       </c>
       <c r="D951" t="s">
-        <v>2</v>
+        <v>1019</v>
       </c>
       <c r="E951" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
       <c r="G951">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H951" t="s">
-        <v>35</v>
+        <v>1216</v>
       </c>
       <c r="I951" t="b">
         <v>1</v>
@@ -25922,22 +25922,22 @@
     </row>
     <row r="952" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B952">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C952">
-        <v>666</v>
+        <v>1075</v>
       </c>
       <c r="D952" t="s">
-        <v>462</v>
+        <v>956</v>
       </c>
       <c r="E952" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="G952">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H952" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="I952" t="b">
         <v>1</v>
@@ -25948,19 +25948,19 @@
         <v>471</v>
       </c>
       <c r="C953">
-        <v>667</v>
+        <v>302</v>
       </c>
       <c r="D953" t="s">
-        <v>289</v>
+        <v>2</v>
       </c>
       <c r="E953" t="s">
         <v>3</v>
       </c>
       <c r="G953">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H953" t="s">
-        <v>1184</v>
+        <v>35</v>
       </c>
       <c r="I953" t="b">
         <v>1</v>
@@ -25971,19 +25971,19 @@
         <v>471</v>
       </c>
       <c r="C954">
-        <v>37</v>
+        <v>666</v>
       </c>
       <c r="D954" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="E954" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="G954">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H954" t="s">
-        <v>76</v>
+        <v>1192</v>
       </c>
       <c r="I954" t="b">
         <v>1</v>
@@ -25994,19 +25994,19 @@
         <v>471</v>
       </c>
       <c r="C955">
-        <v>524</v>
+        <v>667</v>
       </c>
       <c r="D955" t="s">
-        <v>837</v>
+        <v>289</v>
       </c>
       <c r="E955" t="s">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="G955">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="H955" t="s">
-        <v>37</v>
+        <v>1184</v>
       </c>
       <c r="I955" t="b">
         <v>1</v>
@@ -26014,22 +26014,22 @@
     </row>
     <row r="956" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B956">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C956">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="D956" t="s">
-        <v>846</v>
+        <v>439</v>
       </c>
       <c r="E956" t="s">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="G956">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H956" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I956" t="b">
         <v>1</v>
@@ -26037,22 +26037,22 @@
     </row>
     <row r="957" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B957">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C957">
-        <v>54</v>
+        <v>524</v>
       </c>
       <c r="D957" t="s">
-        <v>293</v>
+        <v>837</v>
       </c>
       <c r="E957" t="s">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="G957">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H957" t="s">
-        <v>1184</v>
+        <v>37</v>
       </c>
       <c r="I957" t="b">
         <v>1</v>
@@ -26063,19 +26063,19 @@
         <v>472</v>
       </c>
       <c r="C958">
-        <v>705</v>
+        <v>432</v>
       </c>
       <c r="D958" t="s">
-        <v>229</v>
+        <v>846</v>
       </c>
       <c r="E958" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="G958">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H958" t="s">
-        <v>1183</v>
+        <v>82</v>
       </c>
       <c r="I958" t="b">
         <v>1</v>
@@ -26086,13 +26086,13 @@
         <v>472</v>
       </c>
       <c r="C959">
-        <v>453</v>
+        <v>54</v>
       </c>
       <c r="D959" t="s">
-        <v>1124</v>
+        <v>293</v>
       </c>
       <c r="E959" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="G959">
         <v>18</v>
@@ -26109,19 +26109,19 @@
         <v>472</v>
       </c>
       <c r="C960">
-        <v>165</v>
+        <v>705</v>
       </c>
       <c r="D960" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="E960" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="G960">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H960" t="s">
-        <v>74</v>
+        <v>1183</v>
       </c>
       <c r="I960" t="b">
         <v>1</v>
@@ -26132,19 +26132,19 @@
         <v>472</v>
       </c>
       <c r="C961">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D961" t="s">
-        <v>20</v>
+        <v>1124</v>
       </c>
       <c r="E961" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="G961">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H961" t="s">
-        <v>35</v>
+        <v>1184</v>
       </c>
       <c r="I961" t="b">
         <v>1</v>
@@ -26155,19 +26155,19 @@
         <v>472</v>
       </c>
       <c r="C962">
-        <v>454</v>
+        <v>165</v>
       </c>
       <c r="D962" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="E962" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="G962">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H962" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I962" t="b">
         <v>1</v>
@@ -26178,19 +26178,19 @@
         <v>472</v>
       </c>
       <c r="C963">
-        <v>160</v>
+        <v>477</v>
       </c>
       <c r="D963" t="s">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="E963" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="G963">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H963" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I963" t="b">
         <v>1</v>
@@ -26201,19 +26201,19 @@
         <v>472</v>
       </c>
       <c r="C964">
-        <v>164</v>
+        <v>454</v>
       </c>
       <c r="D964" t="s">
-        <v>570</v>
+        <v>175</v>
       </c>
       <c r="E964" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="G964">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H964" t="s">
-        <v>1194</v>
+        <v>73</v>
       </c>
       <c r="I964" t="b">
         <v>1</v>
@@ -26224,19 +26224,19 @@
         <v>472</v>
       </c>
       <c r="C965">
-        <v>449</v>
+        <v>160</v>
       </c>
       <c r="D965" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="E965" t="s">
         <v>176</v>
       </c>
       <c r="G965">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H965" t="s">
-        <v>1192</v>
+        <v>77</v>
       </c>
       <c r="I965" t="b">
         <v>1</v>
@@ -26244,22 +26244,22 @@
     </row>
     <row r="966" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B966">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C966">
-        <v>609</v>
+        <v>164</v>
       </c>
       <c r="D966" t="s">
-        <v>1115</v>
+        <v>570</v>
       </c>
       <c r="E966" t="s">
-        <v>675</v>
+        <v>21</v>
       </c>
       <c r="G966">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H966" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="I966" t="b">
         <v>1</v>
@@ -26267,22 +26267,22 @@
     </row>
     <row r="967" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B967">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C967">
-        <v>608</v>
+        <v>449</v>
       </c>
       <c r="D967" t="s">
-        <v>845</v>
+        <v>484</v>
       </c>
       <c r="E967" t="s">
-        <v>675</v>
+        <v>176</v>
       </c>
       <c r="G967">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H967" t="s">
-        <v>82</v>
+        <v>1192</v>
       </c>
       <c r="I967" t="b">
         <v>1</v>
@@ -26293,19 +26293,19 @@
         <v>473</v>
       </c>
       <c r="C968">
-        <v>226</v>
+        <v>609</v>
       </c>
       <c r="D968" t="s">
-        <v>381</v>
+        <v>1115</v>
       </c>
       <c r="E968" t="s">
-        <v>382</v>
+        <v>675</v>
       </c>
       <c r="G968">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H968" t="s">
-        <v>1188</v>
+        <v>1201</v>
       </c>
       <c r="I968" t="b">
         <v>1</v>
@@ -26316,19 +26316,19 @@
         <v>473</v>
       </c>
       <c r="C969">
-        <v>799</v>
+        <v>608</v>
       </c>
       <c r="D969" t="s">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="E969" t="s">
-        <v>563</v>
+        <v>675</v>
       </c>
       <c r="G969">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H969" t="s">
-        <v>1194</v>
+        <v>82</v>
       </c>
       <c r="I969" t="b">
         <v>1</v>
@@ -26339,19 +26339,19 @@
         <v>473</v>
       </c>
       <c r="C970">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D970" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="E970" t="s">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="G970">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H970" t="s">
-        <v>74</v>
+        <v>1188</v>
       </c>
       <c r="I970" t="b">
         <v>1</v>
@@ -26362,19 +26362,19 @@
         <v>473</v>
       </c>
       <c r="C971">
-        <v>704</v>
+        <v>799</v>
       </c>
       <c r="D971" t="s">
-        <v>244</v>
+        <v>562</v>
       </c>
       <c r="E971" t="s">
-        <v>245</v>
+        <v>563</v>
       </c>
       <c r="G971">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H971" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="I971" t="b">
         <v>1</v>
@@ -26385,19 +26385,19 @@
         <v>473</v>
       </c>
       <c r="C972">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="D972" t="s">
-        <v>742</v>
+        <v>269</v>
       </c>
       <c r="E972" t="s">
-        <v>743</v>
+        <v>270</v>
       </c>
       <c r="G972">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H972" t="s">
-        <v>1206</v>
+        <v>74</v>
       </c>
       <c r="I972" t="b">
         <v>1</v>
@@ -26408,19 +26408,19 @@
         <v>473</v>
       </c>
       <c r="C973">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="D973" t="s">
-        <v>610</v>
+        <v>244</v>
       </c>
       <c r="E973" t="s">
-        <v>611</v>
+        <v>245</v>
       </c>
       <c r="G973">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H973" t="s">
-        <v>1196</v>
+        <v>1183</v>
       </c>
       <c r="I973" t="b">
         <v>1</v>
@@ -26431,19 +26431,19 @@
         <v>473</v>
       </c>
       <c r="C974">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="D974" t="s">
-        <v>485</v>
+        <v>742</v>
       </c>
       <c r="E974" t="s">
-        <v>486</v>
+        <v>743</v>
       </c>
       <c r="G974">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H974" t="s">
-        <v>1192</v>
+        <v>1206</v>
       </c>
       <c r="I974" t="b">
         <v>1</v>
@@ -26454,19 +26454,19 @@
         <v>473</v>
       </c>
       <c r="C975">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="D975" t="s">
-        <v>892</v>
+        <v>610</v>
       </c>
       <c r="E975" t="s">
-        <v>893</v>
+        <v>611</v>
       </c>
       <c r="G975">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H975" t="s">
-        <v>38</v>
+        <v>1196</v>
       </c>
       <c r="I975" t="b">
         <v>1</v>
@@ -26474,22 +26474,22 @@
     </row>
     <row r="976" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B976">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C976">
-        <v>676</v>
+        <v>187</v>
       </c>
       <c r="D976" t="s">
-        <v>350</v>
+        <v>485</v>
       </c>
       <c r="E976" t="s">
-        <v>166</v>
+        <v>486</v>
       </c>
       <c r="G976">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H976" t="s">
-        <v>75</v>
+        <v>1192</v>
       </c>
       <c r="I976" t="b">
         <v>1</v>
@@ -26497,22 +26497,22 @@
     </row>
     <row r="977" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B977">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C977">
-        <v>677</v>
+        <v>617</v>
       </c>
       <c r="D977" t="s">
-        <v>165</v>
+        <v>892</v>
       </c>
       <c r="E977" t="s">
-        <v>166</v>
+        <v>893</v>
       </c>
       <c r="G977">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H977" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I977" t="b">
         <v>1</v>
@@ -26523,19 +26523,19 @@
         <v>474</v>
       </c>
       <c r="C978">
-        <v>428</v>
+        <v>676</v>
       </c>
       <c r="D978" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="E978" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="G978">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H978" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I978" t="b">
         <v>1</v>
@@ -26546,19 +26546,19 @@
         <v>474</v>
       </c>
       <c r="C979">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="D979" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="E979" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="G979">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H979" t="s">
-        <v>1179</v>
+        <v>73</v>
       </c>
       <c r="I979" t="b">
         <v>1</v>
@@ -26569,21 +26569,67 @@
         <v>474</v>
       </c>
       <c r="C980">
+        <v>428</v>
+      </c>
+      <c r="D980" t="s">
+        <v>140</v>
+      </c>
+      <c r="E980" t="s">
+        <v>105</v>
+      </c>
+      <c r="G980">
+        <v>13</v>
+      </c>
+      <c r="H980" t="s">
+        <v>36</v>
+      </c>
+      <c r="I980" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B981">
+        <v>474</v>
+      </c>
+      <c r="C981">
+        <v>478</v>
+      </c>
+      <c r="D981" t="s">
+        <v>104</v>
+      </c>
+      <c r="E981" t="s">
+        <v>105</v>
+      </c>
+      <c r="G981">
+        <v>12</v>
+      </c>
+      <c r="H981" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I981" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B982">
+        <v>474</v>
+      </c>
+      <c r="C982">
         <v>1045</v>
       </c>
-      <c r="D980" t="s">
+      <c r="D982" t="s">
         <v>343</v>
       </c>
-      <c r="E980" t="s">
+      <c r="E982" t="s">
         <v>344</v>
       </c>
-      <c r="G980">
+      <c r="G982">
         <v>19</v>
       </c>
-      <c r="H980" t="s">
+      <c r="H982" t="s">
         <v>1185</v>
       </c>
-      <c r="I980" t="b">
+      <c r="I982" t="b">
         <v>1</v>
       </c>
     </row>
